--- a/pe2/WriteupData.xlsx
+++ b/pe2/WriteupData.xlsx
@@ -184,72 +184,72 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.81</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="47662976"/>
-        <c:axId val="47661440"/>
+        <c:axId val="54892032"/>
+        <c:axId val="54894592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47662976"/>
+        <c:axId val="54892032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,12 +274,12 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47661440"/>
+        <c:crossAx val="54894592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47661440"/>
+        <c:axId val="54894592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +305,7 @@
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47662976"/>
+        <c:crossAx val="54892032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -314,7 +314,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -643,7 +643,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +664,7 @@
         <v>0.05</v>
       </c>
       <c r="B2" s="2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -672,7 +672,7 @@
         <v>0.1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -688,7 +688,7 @@
         <v>0.2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -696,7 +696,7 @@
         <v>0.25</v>
       </c>
       <c r="B6" s="2">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -704,7 +704,7 @@
         <v>0.3</v>
       </c>
       <c r="B7" s="2">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -712,7 +712,7 @@
         <v>0.35</v>
       </c>
       <c r="B8" s="2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -720,7 +720,7 @@
         <v>0.4</v>
       </c>
       <c r="B9" s="2">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -728,7 +728,7 @@
         <v>0.45</v>
       </c>
       <c r="B10" s="2">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -736,7 +736,7 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -744,7 +744,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B12" s="2">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -752,7 +752,7 @@
         <v>0.6</v>
       </c>
       <c r="B13" s="2">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -760,7 +760,7 @@
         <v>0.65</v>
       </c>
       <c r="B14" s="2">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -768,7 +768,7 @@
         <v>0.7</v>
       </c>
       <c r="B15" s="2">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -776,7 +776,7 @@
         <v>0.75</v>
       </c>
       <c r="B16" s="2">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -784,7 +784,7 @@
         <v>0.8</v>
       </c>
       <c r="B17" s="2">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -792,7 +792,7 @@
         <v>0.85</v>
       </c>
       <c r="B18" s="2">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -800,7 +800,7 @@
         <v>0.9</v>
       </c>
       <c r="B19" s="2">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -808,7 +808,7 @@
         <v>0.95</v>
       </c>
       <c r="B20" s="2">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
